--- a/Files/Residences.xlsx
+++ b/Files/Residences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibucro0-my.sharepoint.com/personal/teodora_sumurduc_s_unibuc_ro/Documents/Desktop/GitHub/RPA-Project/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="109_{1B29A8E7-C9A3-4564-B82D-7F2B27A0D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834570DB-0735-4D73-9B52-A2EDF3D0A158}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="109_{1B29A8E7-C9A3-4564-B82D-7F2B27A0D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1A0F70-BFA0-4807-92A7-0E46C8D40176}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="855" windowWidth="21548" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
